--- a/TP5_Arboles/p6/p6b.xlsx
+++ b/TP5_Arboles/p6/p6b.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8f0d613f702b1599/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8f0d613f702b1599/Documents/p6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DDE67BB-124A-47FF-AB37-FDFB534299FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{9DDE67BB-124A-47FF-AB37-FDFB534299FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{169C54A4-0F43-4745-85B1-9F4D400DF6E7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6FD1907A-6AED-42EB-AE17-025CDC4AECA7}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="29">
-  <si>
-    <t xml:space="preserve">Insertar en arbol orden 5:  A, D, M, P, Z, B, J, N, G, U, R, K, E, H, O, L, F, S, C, T. </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="34">
   <si>
     <t>Se inserta A,D,M,P</t>
   </si>
@@ -122,6 +119,24 @@
   <si>
     <t>T</t>
   </si>
+  <si>
+    <t xml:space="preserve">Insertar en arbol b orden 5:  A, D, M, P, Z, B, J, N, G, U, R, K, E, H, O, L, F, S, C, T. </t>
+  </si>
+  <si>
+    <t>Se inserta G</t>
+  </si>
+  <si>
+    <t>Al insertar U, se crea un nuevo nodo</t>
+  </si>
+  <si>
+    <t>Se inserta R,K,E,H,O</t>
+  </si>
+  <si>
+    <t>Se inserta L, se crea nuevo nodo</t>
+  </si>
+  <si>
+    <t>Se insertan F,S,C,T</t>
+  </si>
 </sst>
 </file>
 
@@ -1663,6 +1678,1066 @@
         <a:xfrm>
           <a:off x="4181475" y="8210550"/>
           <a:ext cx="409575" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Conector recto de flecha 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B69EE00-3079-46A4-A8EC-BE08CFD6E3D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286000" y="1495425"/>
+          <a:ext cx="400050" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Conector recto de flecha 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A330187-B34F-496D-8F54-86F86184CAD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="752475" y="1504950"/>
+          <a:ext cx="1152525" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Conector recto de flecha 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30C49277-5A62-49F7-B01C-C1665B55FA63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2667000" y="2638425"/>
+          <a:ext cx="400050" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Conector recto de flecha 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2014D0DC-95FD-42F5-BC80-C753F8202ED3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1133475" y="2647950"/>
+          <a:ext cx="1152525" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Conector recto de flecha 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23341AAE-605A-4E50-95F0-3730CA5A0E0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19431000" y="2447925"/>
+          <a:ext cx="400050" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Conector recto de flecha 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71452EF8-975D-459B-B3F5-D416389BCCDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="17897475" y="2457450"/>
+          <a:ext cx="1152525" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Conector recto de flecha 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F16E27C8-1370-48F7-8161-9090089C440C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19840575" y="4000500"/>
+          <a:ext cx="1905000" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Conector recto de flecha 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954D5D82-568E-4CEC-946F-AA3687288E9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="17897475" y="3219450"/>
+          <a:ext cx="1152525" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Conector recto de flecha 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E93E9A37-50BF-45E2-B935-9B3A8BCC981E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19421475" y="4000500"/>
+          <a:ext cx="390525" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Conector recto de flecha 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3357435-1D9A-43D9-9885-82CB4823C32C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19840575" y="4000500"/>
+          <a:ext cx="1905000" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Conector recto de flecha 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94110DDC-6B3F-4E39-8656-3427718F5B29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="17897475" y="3981450"/>
+          <a:ext cx="1152525" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Conector recto de flecha 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{881380B0-3B91-4277-A469-6D28A3236999}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19421475" y="4000500"/>
+          <a:ext cx="390525" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Conector recto de flecha 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68A9E430-F208-460C-B31C-DE958FD8DDF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20116800" y="5705475"/>
+          <a:ext cx="3505200" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Conector recto de flecha 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5C6210B-85D2-4299-9F72-72CBBBE384D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="17907000" y="5695950"/>
+          <a:ext cx="1143000" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Conector recto de flecha 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D07B62AF-3692-4803-88C9-EDB62E6EAD4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19392900" y="5686425"/>
+          <a:ext cx="447675" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="Conector recto de flecha 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CE565C2-618C-4CFA-8B27-A7DD85CACA0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19792950" y="5695950"/>
+          <a:ext cx="1962150" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="Conector recto de flecha 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54D30C1F-EFA4-4D5B-A7EA-D91904A925D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20116800" y="5705475"/>
+          <a:ext cx="3505200" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="Conector recto de flecha 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46710818-132D-40B1-BC20-C4316BCD02C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="17907000" y="5695950"/>
+          <a:ext cx="1143000" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Conector recto de flecha 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE401D84-E2D7-4042-AB8B-C19EE77C33C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19392900" y="5686425"/>
+          <a:ext cx="447675" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Conector recto de flecha 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7730FDC-5A72-4071-B7C2-3FF4F6A790D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19792950" y="5695950"/>
+          <a:ext cx="1962150" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1988,417 +3063,740 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7037B2DC-2F54-4E5E-95B8-28607C609B61}">
-  <dimension ref="A2:Z55"/>
+  <dimension ref="A2:BL55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S51" sqref="S51"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="48" width="5.7109375" customWidth="1"/>
+    <col min="1" max="102" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="L5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="AV5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="F8" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="L8" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="AY8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ8" s="2"/>
+      <c r="BA8" s="2"/>
+      <c r="BB8" s="2"/>
+      <c r="BE8" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
+      <c r="AT10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV10" s="2"/>
+      <c r="AW10" s="2"/>
+      <c r="AY10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AZ10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA10" s="2"/>
+      <c r="BB10" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="AY13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ13" s="2"/>
+      <c r="BA13" s="2"/>
+      <c r="BB13" s="2"/>
+      <c r="BF13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="G14" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="N14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="AT15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY15" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="AZ15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="G16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J16" s="2"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="AY17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ17" s="2"/>
+      <c r="BA17" s="2"/>
+      <c r="BB17" s="2"/>
+      <c r="BF17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="AT19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:59" x14ac:dyDescent="0.25">
       <c r="G20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="N20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="AY21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA21" s="2"/>
+      <c r="BB21" s="2"/>
+      <c r="BF21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="G22" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="L22" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O22" s="2"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="AT23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA23" s="2"/>
+      <c r="BB23" s="2"/>
+      <c r="BD23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BE23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BF23" s="2"/>
+      <c r="BG23" s="2"/>
+    </row>
+    <row r="26" spans="2:59" x14ac:dyDescent="0.25">
       <c r="H26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="R26" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="AY26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA26" s="2"/>
+      <c r="BB26" s="2"/>
+      <c r="BF26" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:59" x14ac:dyDescent="0.25">
       <c r="C28" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="M28" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU28" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="AV28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="BF28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BG28" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="AY30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="BA30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="BB30" s="2"/>
+      <c r="BF30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="2:59" x14ac:dyDescent="0.25">
       <c r="H31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I31" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="J31" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K31" s="2"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="K34" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="P34" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
+      <c r="AT34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA34" s="2"/>
+      <c r="BB34" s="2"/>
+      <c r="BD34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BF34" s="2"/>
+      <c r="BG34" s="2"/>
+      <c r="BI34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BJ34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="BK34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BL34" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="AY36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AZ36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="BA36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB36" s="2"/>
+      <c r="BF36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:64" x14ac:dyDescent="0.25">
       <c r="J37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K37" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K37" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="L37" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M37" s="2"/>
       <c r="W37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:64" x14ac:dyDescent="0.25">
       <c r="C40" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
       <c r="R40" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
+      <c r="AT40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AW40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AZ40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BD40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BF40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="BG40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="BJ40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="BK40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BL40" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:64" x14ac:dyDescent="0.25">
       <c r="J43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="M43" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="K46" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="P46" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
       <c r="U46" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V46" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
     </row>
     <row r="52" spans="3:26" x14ac:dyDescent="0.25">
       <c r="L52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N52" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="2" t="s">
+      <c r="O52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y52" t="s">
         <v>21</v>
-      </c>
-      <c r="N52" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O52" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y52" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="55" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C55" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F55" s="2"/>
       <c r="H55" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K55" s="2"/>
       <c r="M55" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P55" s="2"/>
       <c r="R55" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U55" s="2"/>
       <c r="W55" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X55" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y55" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z55" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
